--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf6-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf6-Bmpr1b.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09749966666666665</v>
+        <v>0.5039156666666667</v>
       </c>
       <c r="H2">
-        <v>0.292499</v>
+        <v>1.511747</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,22 +555,22 @@
         <v>4.73814</v>
       </c>
       <c r="O2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q2">
-        <v>0.15398902354</v>
+        <v>0.7958743256199998</v>
       </c>
       <c r="R2">
-        <v>1.38590121186</v>
+        <v>7.162868930579999</v>
       </c>
       <c r="S2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="T2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +587,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09749966666666665</v>
+        <v>0.5039156666666667</v>
       </c>
       <c r="H3">
-        <v>0.292499</v>
+        <v>1.511747</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,28 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N3">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q3">
-        <v>0.05883129886666666</v>
+        <v>0.1497902756917778</v>
       </c>
       <c r="R3">
-        <v>0.5294816897999999</v>
+        <v>1.348112481226</v>
       </c>
       <c r="S3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="T3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
     </row>
   </sheetData>
